--- a/pabi_account_report/xlsx_template/xlsx_report_revenue_ledger.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_revenue_ledger.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t xml:space="preserve">Revenue Ledger Report</t>
   </si>
@@ -55,13 +55,13 @@
     <t xml:space="preserve">Date To</t>
   </si>
   <si>
+    <t xml:space="preserve">Charge Type</t>
+  </si>
+  <si>
     <t xml:space="preserve">Run By</t>
   </si>
   <si>
     <t xml:space="preserve">Run Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charge Type</t>
   </si>
   <si>
     <t xml:space="preserve">Account Code</t>
@@ -368,12 +368,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -443,7 +443,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BB13"/>
+  <dimension ref="A1:BB14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -492,7 +492,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="4" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="4" width="22.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="21.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="21.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="4" width="20.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="19.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="15.68"/>
@@ -501,7 +501,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="1" width="24.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="1" width="27.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="1" width="21.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="1" width="21.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="23.35"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="54" style="1" width="11.52"/>
   </cols>
@@ -641,10 +641,12 @@
       <c r="AR9" s="2"/>
     </row>
     <row r="10" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="8"/>
       <c r="L10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
@@ -658,7 +660,7 @@
       <c r="A11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="7"/>
       <c r="L11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
@@ -669,6 +671,10 @@
       <c r="AR11" s="2"/>
     </row>
     <row r="12" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="8"/>
       <c r="L12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
@@ -678,167 +684,177 @@
       <c r="AP12" s="2"/>
       <c r="AR12" s="2"/>
     </row>
-    <row r="13" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="10" t="s">
+    <row r="13" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="2"/>
+      <c r="AR13" s="2"/>
+    </row>
+    <row r="14" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="L14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="M14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="N13" s="10" t="s">
+      <c r="N14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="O13" s="10" t="s">
+      <c r="O14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="P13" s="10" t="s">
+      <c r="P14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="Q13" s="10" t="s">
+      <c r="Q14" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R13" s="10" t="s">
+      <c r="R14" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="S13" s="10" t="s">
+      <c r="S14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="T13" s="10" t="s">
+      <c r="T14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="U13" s="10" t="s">
+      <c r="U14" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="V13" s="10" t="s">
+      <c r="V14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="W13" s="10" t="s">
+      <c r="W14" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="X13" s="10" t="s">
+      <c r="X14" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Y13" s="10" t="s">
+      <c r="Y14" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="Z13" s="10" t="s">
+      <c r="Z14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AA13" s="10" t="s">
+      <c r="AA14" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AB13" s="10" t="s">
+      <c r="AB14" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AC13" s="10" t="s">
+      <c r="AC14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="AD13" s="10" t="s">
+      <c r="AD14" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="AE13" s="10" t="s">
+      <c r="AE14" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AF13" s="10" t="s">
+      <c r="AF14" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AG13" s="10" t="s">
+      <c r="AG14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AH13" s="10" t="s">
+      <c r="AH14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="AI13" s="10" t="s">
+      <c r="AI14" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="AJ13" s="10" t="s">
+      <c r="AJ14" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AK13" s="10" t="s">
+      <c r="AK14" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AL13" s="10" t="s">
+      <c r="AL14" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AM13" s="10" t="s">
+      <c r="AM14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AN13" s="10" t="s">
+      <c r="AN14" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AO13" s="10" t="s">
+      <c r="AO14" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AP13" s="10" t="s">
+      <c r="AP14" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="AQ13" s="10" t="s">
+      <c r="AQ14" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AR13" s="10" t="s">
+      <c r="AR14" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="AS13" s="10" t="s">
+      <c r="AS14" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="AT13" s="10" t="s">
+      <c r="AT14" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="AU13" s="10" t="s">
+      <c r="AU14" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="AV13" s="10" t="s">
+      <c r="AV14" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="AW13" s="10" t="s">
+      <c r="AW14" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="AX13" s="10" t="s">
+      <c r="AX14" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AY13" s="10" t="s">
+      <c r="AY14" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="AZ13" s="10" t="s">
+      <c r="AZ14" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="BA13" s="10" t="s">
+      <c r="BA14" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="BB13" s="11"/>
+      <c r="BB14" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/pabi_account_report/xlsx_template/xlsx_report_revenue_ledger.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_revenue_ledger.xlsx
@@ -224,10 +224,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,###.00"/>
     <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
+    <numFmt numFmtId="167" formatCode="MM/DD/YY"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -313,7 +314,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -346,6 +347,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -368,12 +373,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -614,7 +619,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="W8" s="2"/>
-      <c r="AO8" s="2"/>
+      <c r="AO8" s="8"/>
       <c r="AP8" s="2"/>
       <c r="AR8" s="2"/>
     </row>
@@ -640,11 +645,11 @@
       <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="9"/>
       <c r="L10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
@@ -655,7 +660,7 @@
       <c r="AR10" s="2"/>
     </row>
     <row r="11" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="7"/>
@@ -669,10 +674,10 @@
       <c r="AR11" s="2"/>
     </row>
     <row r="12" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="9"/>
       <c r="L12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
@@ -692,167 +697,167 @@
       <c r="AP13" s="2"/>
       <c r="AR13" s="2"/>
     </row>
-    <row r="14" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
+    <row r="14" s="13" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="L14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="10" t="s">
+      <c r="M14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="10" t="s">
+      <c r="N14" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O14" s="10" t="s">
+      <c r="O14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P14" s="10" t="s">
+      <c r="P14" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="Q14" s="10" t="s">
+      <c r="Q14" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="R14" s="10" t="s">
+      <c r="R14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="S14" s="10" t="s">
+      <c r="S14" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T14" s="10" t="s">
+      <c r="T14" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="U14" s="10" t="s">
+      <c r="U14" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="V14" s="10" t="s">
+      <c r="V14" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="W14" s="10" t="s">
+      <c r="W14" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="X14" s="10" t="s">
+      <c r="X14" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="Y14" s="10" t="s">
+      <c r="Y14" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="Z14" s="10" t="s">
+      <c r="Z14" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="AA14" s="10" t="s">
+      <c r="AA14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AB14" s="10" t="s">
+      <c r="AB14" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AC14" s="10" t="s">
+      <c r="AC14" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AD14" s="10" t="s">
+      <c r="AD14" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AE14" s="10" t="s">
+      <c r="AE14" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="AF14" s="10" t="s">
+      <c r="AF14" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AG14" s="10" t="s">
+      <c r="AG14" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="AH14" s="10" t="s">
+      <c r="AH14" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="AI14" s="10" t="s">
+      <c r="AI14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AJ14" s="10" t="s">
+      <c r="AJ14" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="AK14" s="10" t="s">
+      <c r="AK14" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AL14" s="10" t="s">
+      <c r="AL14" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AM14" s="10" t="s">
+      <c r="AM14" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AN14" s="10" t="s">
+      <c r="AN14" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AO14" s="10" t="s">
+      <c r="AO14" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AP14" s="10" t="s">
+      <c r="AP14" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AQ14" s="10" t="s">
+      <c r="AQ14" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AR14" s="10" t="s">
+      <c r="AR14" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="AS14" s="10" t="s">
+      <c r="AS14" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT14" s="10" t="s">
+      <c r="AT14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU14" s="10" t="s">
+      <c r="AU14" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AV14" s="10" t="s">
+      <c r="AV14" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AW14" s="10" t="s">
+      <c r="AW14" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AX14" s="10" t="s">
+      <c r="AX14" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AY14" s="10" t="s">
+      <c r="AY14" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="AZ14" s="10" t="s">
+      <c r="AZ14" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="BA14" s="10" t="s">
+      <c r="BA14" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="BB14" s="11"/>
+      <c r="BB14" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
